--- a/optimize_hyperparam/opt_results/opt_res_ml_26102023/SARIMA/261023_DF_opt_hyperparam_SARIMA_multi-nstep.xlsx
+++ b/optimize_hyperparam/opt_results/opt_res_ml_26102023/SARIMA/261023_DF_opt_hyperparam_SARIMA_multi-nstep.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,19 +507,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37.82654777601536</v>
+        <v>24.88354817058536</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -527,104 +527,16 @@
         </is>
       </c>
       <c r="I2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J2" t="n">
         <v>1</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>An Giang</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>SARIMA</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12.11100328539651</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" t="n">
         <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Quảng Ninh</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>SARIMA</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2.295764546400036</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
